--- a/testData/testDataFile.xlsx
+++ b/testData/testDataFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutomationPractise\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MoolyaTesting_Assignment-master\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>TestCase</t>
   </si>
@@ -48,19 +48,46 @@
     <t>TC-05</t>
   </si>
   <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>TC-07</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
     <t>prabhudeba1@gmail.com</t>
   </si>
   <si>
+    <t>Raajdhani</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>prabhudeba2@gmail.com</t>
   </si>
   <si>
     <t>prabhudeba3@gmail.com</t>
   </si>
   <si>
-    <t>Raajdhani</t>
-  </si>
-  <si>
     <t>prabhudeba4@gmail.com</t>
+  </si>
+  <si>
+    <t>prabhudeba5@gmail.com</t>
+  </si>
+  <si>
+    <t>Raajdhani12</t>
+  </si>
+  <si>
+    <t>Raajdha22ni</t>
+  </si>
+  <si>
+    <t>33ff</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -151,7 +178,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -483,10 +520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,83 +553,135 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B6" r:id="rId2" display="prabhudeba1@gmail.com"/>
+    <hyperlink ref="B3:B9" r:id="rId2" display="prabhudeba1@gmail.com"/>
     <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
